--- a/database/nutristandard/imtu_boys.xlsx
+++ b/database/nutristandard/imtu_boys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\posyandu-meneh-ki\database\nutristandard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABFD33-C66D-46CA-8CB1-5EE2F0D703BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A7A1A-4B43-4952-9F62-F41DD845D968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Month</t>
   </si>
@@ -33,11 +33,26 @@
   <si>
     <t>SD1</t>
   </si>
+  <si>
+    <t>SD3neg</t>
+  </si>
+  <si>
+    <t>SD2neg</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>SD3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,8 +530,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -872,2378 +888,4406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>61</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>12.118</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13.031000000000001</v>
+      </c>
+      <c r="D2" s="1">
         <v>14.071</v>
       </c>
-      <c r="C2">
+      <c r="E2" s="1">
         <v>15.263999999999999</v>
       </c>
-      <c r="D2">
+      <c r="F2" s="1">
         <v>16.645</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>18.259</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20.166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>12.115</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13.026999999999999</v>
+      </c>
+      <c r="D3" s="1">
         <v>14.066000000000001</v>
       </c>
-      <c r="C3">
+      <c r="E3" s="1">
         <v>15.262</v>
       </c>
-      <c r="D3">
+      <c r="F3" s="1">
         <v>16.648</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>18.273</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>63</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <v>12.114000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13.023999999999999</v>
+      </c>
+      <c r="D4" s="1">
         <v>14.063000000000001</v>
       </c>
-      <c r="C4">
+      <c r="E4" s="1">
         <v>15.26</v>
       </c>
-      <c r="D4">
+      <c r="F4" s="1">
         <v>16.652999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>18.29</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20.238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>64</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>12.114000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13.022</v>
+      </c>
+      <c r="D5" s="1">
         <v>14.061</v>
       </c>
-      <c r="C5">
+      <c r="E5" s="1">
         <v>15.26</v>
       </c>
-      <c r="D5">
+      <c r="F5" s="1">
         <v>16.658999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>18.308</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20.277000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>65</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
+        <v>12.114000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13.021000000000001</v>
+      </c>
+      <c r="D6" s="1">
         <v>14.06</v>
       </c>
-      <c r="C6">
+      <c r="E6" s="1">
         <v>15.262</v>
       </c>
-      <c r="D6">
+      <c r="F6" s="1">
         <v>16.667000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>66</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
+        <v>12.115</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13.021000000000001</v>
+      </c>
+      <c r="D7" s="1">
         <v>14.06</v>
       </c>
-      <c r="C7">
+      <c r="E7" s="1">
         <v>15.263999999999999</v>
       </c>
-      <c r="D7">
+      <c r="F7" s="1">
         <v>16.675999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20.364999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>67</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>12.117000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13.021000000000001</v>
+      </c>
+      <c r="D8" s="1">
         <v>14.061</v>
       </c>
-      <c r="C8">
+      <c r="E8" s="1">
         <v>15.268000000000001</v>
       </c>
-      <c r="D8">
+      <c r="F8" s="1">
         <v>16.686</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>18.373999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20.413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <v>12.121</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13.023</v>
+      </c>
+      <c r="D9" s="1">
         <v>14.063000000000001</v>
       </c>
-      <c r="C9">
+      <c r="E9" s="1">
         <v>15.273999999999999</v>
       </c>
-      <c r="D9">
+      <c r="F9" s="1">
         <v>16.699000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>18.399000000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20.463000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>69</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <v>12.125</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13.026</v>
+      </c>
+      <c r="D10" s="1">
         <v>14.067</v>
       </c>
-      <c r="C10">
+      <c r="E10" s="1">
         <v>15.28</v>
       </c>
-      <c r="D10">
+      <c r="F10" s="1">
         <v>16.712</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>18.427</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20.515000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>70</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <v>12.129</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13.03</v>
+      </c>
+      <c r="D11" s="1">
         <v>14.071</v>
       </c>
-      <c r="C11">
+      <c r="E11" s="1">
         <v>15.288</v>
       </c>
-      <c r="D11">
+      <c r="F11" s="1">
         <v>16.727</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>18.456</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20.571000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>71</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
+        <v>12.135</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13.035</v>
+      </c>
+      <c r="D12" s="1">
         <v>14.077</v>
       </c>
-      <c r="C12">
+      <c r="E12" s="1">
         <v>15.295999999999999</v>
       </c>
-      <c r="D12">
+      <c r="F12" s="1">
         <v>16.742999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>18.486999999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20.628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>72</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
+        <v>12.141</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13.04</v>
+      </c>
+      <c r="D13" s="1">
         <v>14.083</v>
       </c>
-      <c r="C13">
+      <c r="E13" s="1">
         <v>15.305999999999999</v>
       </c>
-      <c r="D13">
+      <c r="F13" s="1">
         <v>16.760999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>18.52</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20.689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>73</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
+        <v>12.148</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13.047000000000001</v>
+      </c>
+      <c r="D14" s="1">
         <v>14.09</v>
       </c>
-      <c r="C14">
+      <c r="E14" s="1">
         <v>15.317</v>
       </c>
-      <c r="D14">
+      <c r="F14" s="1">
         <v>16.78</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>18.553999999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20.751000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>74</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
+        <v>12.154999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13.053000000000001</v>
+      </c>
+      <c r="D15" s="1">
         <v>14.098000000000001</v>
       </c>
-      <c r="C15">
+      <c r="E15" s="1">
         <v>15.327999999999999</v>
       </c>
-      <c r="D15">
+      <c r="F15" s="1">
         <v>16.798999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>18.588999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20.815999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>75</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
+        <v>12.163</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13.061</v>
+      </c>
+      <c r="D16" s="1">
         <v>14.106999999999999</v>
       </c>
-      <c r="C16">
+      <c r="E16" s="1">
         <v>15.340999999999999</v>
       </c>
-      <c r="D16">
+      <c r="F16" s="1">
         <v>16.82</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>18.626000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20.882999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>76</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
+        <v>12.170999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13.069000000000001</v>
+      </c>
+      <c r="D17" s="1">
         <v>14.116</v>
       </c>
-      <c r="C17">
+      <c r="E17" s="1">
         <v>15.353999999999999</v>
       </c>
-      <c r="D17">
+      <c r="F17" s="1">
         <v>16.841999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>18.664999999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20.952000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>77</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
+        <v>12.18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13.077</v>
+      </c>
+      <c r="D18" s="1">
         <v>14.125999999999999</v>
       </c>
-      <c r="C18">
+      <c r="E18" s="1">
         <v>15.368</v>
       </c>
-      <c r="D18">
+      <c r="F18" s="1">
         <v>16.864000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>18.704000000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>21.023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>78</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
+        <v>12.189</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13.086</v>
+      </c>
+      <c r="D19" s="1">
         <v>14.135999999999999</v>
       </c>
-      <c r="C19">
+      <c r="E19" s="1">
         <v>15.382</v>
       </c>
-      <c r="D19">
+      <c r="F19" s="1">
         <v>16.888000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>18.745000000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>21.097000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>79</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
+        <v>12.198</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="D20" s="1">
         <v>14.147</v>
       </c>
-      <c r="C20">
+      <c r="E20" s="1">
         <v>15.398</v>
       </c>
-      <c r="D20">
+      <c r="F20" s="1">
         <v>16.913</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>18.788</v>
+      </c>
+      <c r="H20" s="1">
+        <v>21.173999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
+        <v>12.208</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13.105</v>
+      </c>
+      <c r="D21" s="1">
         <v>14.157999999999999</v>
       </c>
-      <c r="C21">
+      <c r="E21" s="1">
         <v>15.414</v>
       </c>
-      <c r="D21">
+      <c r="F21" s="1">
         <v>16.937999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>18.831</v>
+      </c>
+      <c r="H21" s="1">
+        <v>21.251000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>81</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
+        <v>12.218</v>
+      </c>
+      <c r="C22" s="1">
+        <v>13.115</v>
+      </c>
+      <c r="D22" s="1">
         <v>14.17</v>
       </c>
-      <c r="C22">
+      <c r="E22" s="1">
         <v>15.43</v>
       </c>
-      <c r="D22">
+      <c r="F22" s="1">
         <v>16.963999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21.331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>82</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
+        <v>12.228</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13.125999999999999</v>
+      </c>
+      <c r="D23" s="1">
         <v>14.183</v>
       </c>
-      <c r="C23">
+      <c r="E23" s="1">
         <v>15.446999999999999</v>
       </c>
-      <c r="D23">
+      <c r="F23" s="1">
         <v>16.991</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>18.922000000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>21.413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>83</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
+        <v>12.239000000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13.135999999999999</v>
+      </c>
+      <c r="D24" s="1">
         <v>14.195</v>
       </c>
-      <c r="C24">
+      <c r="E24" s="1">
         <v>15.465</v>
       </c>
-      <c r="D24">
+      <c r="F24" s="1">
         <v>17.018999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>18.969000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>21.498000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>84</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13.148</v>
+      </c>
+      <c r="D25" s="1">
         <v>14.209</v>
       </c>
-      <c r="C25">
+      <c r="E25" s="1">
         <v>15.483000000000001</v>
       </c>
-      <c r="D25">
+      <c r="F25" s="1">
         <v>17.047000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>19.016999999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>21.584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>85</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
+        <v>12.260999999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13.159000000000001</v>
+      </c>
+      <c r="D26" s="1">
         <v>14.222</v>
       </c>
-      <c r="C26">
+      <c r="E26" s="1">
         <v>15.502000000000001</v>
       </c>
-      <c r="D26">
+      <c r="F26" s="1">
         <v>17.076000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>19.065999999999999</v>
+      </c>
+      <c r="H26" s="1">
+        <v>21.672000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>86</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
+        <v>12.272</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13.170999999999999</v>
+      </c>
+      <c r="D27" s="1">
         <v>14.236000000000001</v>
       </c>
-      <c r="C27">
+      <c r="E27" s="1">
         <v>15.521000000000001</v>
       </c>
-      <c r="D27">
+      <c r="F27" s="1">
         <v>17.106000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>19.116</v>
+      </c>
+      <c r="H27" s="1">
+        <v>21.763000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>87</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
+        <v>12.282999999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>13.183</v>
+      </c>
+      <c r="D28" s="1">
         <v>14.25</v>
       </c>
-      <c r="C28">
+      <c r="E28" s="1">
         <v>15.541</v>
       </c>
-      <c r="D28">
+      <c r="F28" s="1">
         <v>17.135999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>19.167999999999999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>21.856000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>88</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
+        <v>12.295</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13.195</v>
+      </c>
+      <c r="D29" s="1">
         <v>14.265000000000001</v>
       </c>
-      <c r="C29">
+      <c r="E29" s="1">
         <v>15.561</v>
       </c>
-      <c r="D29">
+      <c r="F29" s="1">
         <v>17.167000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>19.22</v>
+      </c>
+      <c r="H29" s="1">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>89</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
+        <v>12.307</v>
+      </c>
+      <c r="C30" s="1">
+        <v>13.208</v>
+      </c>
+      <c r="D30" s="1">
         <v>14.28</v>
       </c>
-      <c r="C30">
+      <c r="E30" s="1">
         <v>15.581</v>
       </c>
-      <c r="D30">
+      <c r="F30" s="1">
         <v>17.199000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>19.274000000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>22.047999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>90</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
+        <v>12.319000000000001</v>
+      </c>
+      <c r="C31" s="1">
+        <v>13.221</v>
+      </c>
+      <c r="D31" s="1">
         <v>14.295</v>
       </c>
-      <c r="C31">
+      <c r="E31" s="1">
         <v>15.602</v>
       </c>
-      <c r="D31">
+      <c r="F31" s="1">
         <v>17.231000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>19.327999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>22.146999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>91</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
+        <v>12.331</v>
+      </c>
+      <c r="C32" s="1">
+        <v>13.234</v>
+      </c>
+      <c r="D32" s="1">
         <v>14.311</v>
       </c>
-      <c r="C32">
+      <c r="E32" s="1">
         <v>15.624000000000001</v>
       </c>
-      <c r="D32">
+      <c r="F32" s="1">
         <v>17.263999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>19.382999999999999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>22.247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>92</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
+        <v>12.343</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13.247</v>
+      </c>
+      <c r="D33" s="1">
         <v>14.327</v>
       </c>
-      <c r="C33">
+      <c r="E33" s="1">
         <v>15.646000000000001</v>
       </c>
-      <c r="D33">
+      <c r="F33" s="1">
         <v>17.297000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="H33" s="1">
+        <v>22.350999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>93</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
+        <v>12.356</v>
+      </c>
+      <c r="C34" s="1">
+        <v>13.26</v>
+      </c>
+      <c r="D34" s="1">
         <v>14.343</v>
       </c>
-      <c r="C34">
+      <c r="E34" s="1">
         <v>15.667999999999999</v>
       </c>
-      <c r="D34">
+      <c r="F34" s="1">
         <v>17.331</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>19.497</v>
+      </c>
+      <c r="H34" s="1">
+        <v>22.457000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>94</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
+        <v>12.368</v>
+      </c>
+      <c r="C35" s="1">
+        <v>13.273999999999999</v>
+      </c>
+      <c r="D35" s="1">
         <v>14.36</v>
       </c>
-      <c r="C35">
+      <c r="E35" s="1">
         <v>15.69</v>
       </c>
-      <c r="D35">
+      <c r="F35" s="1">
         <v>17.366</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>19.555</v>
+      </c>
+      <c r="H35" s="1">
+        <v>22.562999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>95</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
+        <v>12.381</v>
+      </c>
+      <c r="C36" s="1">
+        <v>13.288</v>
+      </c>
+      <c r="D36" s="1">
         <v>14.377000000000001</v>
       </c>
-      <c r="C36">
+      <c r="E36" s="1">
         <v>15.712999999999999</v>
       </c>
-      <c r="D36">
+      <c r="F36" s="1">
         <v>17.401</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <v>19.614999999999998</v>
+      </c>
+      <c r="H36" s="1">
+        <v>22.672999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>96</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
+        <v>12.394</v>
+      </c>
+      <c r="C37" s="1">
+        <v>13.302</v>
+      </c>
+      <c r="D37" s="1">
         <v>14.394</v>
       </c>
-      <c r="C37">
+      <c r="E37" s="1">
         <v>15.737</v>
       </c>
-      <c r="D37">
+      <c r="F37" s="1">
         <v>17.437000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>19.675000000000001</v>
+      </c>
+      <c r="H37" s="1">
+        <v>22.785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>97</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
+        <v>12.407</v>
+      </c>
+      <c r="C38" s="1">
+        <v>13.317</v>
+      </c>
+      <c r="D38" s="1">
         <v>14.412000000000001</v>
       </c>
-      <c r="C38">
+      <c r="E38" s="1">
         <v>15.760999999999999</v>
       </c>
-      <c r="D38">
+      <c r="F38" s="1">
         <v>17.472999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="H38" s="1">
+        <v>22.899000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>98</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
+        <v>12.42</v>
+      </c>
+      <c r="C39" s="1">
+        <v>13.331</v>
+      </c>
+      <c r="D39" s="1">
         <v>14.429</v>
       </c>
-      <c r="C39">
+      <c r="E39" s="1">
         <v>15.785</v>
       </c>
-      <c r="D39">
+      <c r="F39" s="1">
         <v>17.510000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>19.797999999999998</v>
+      </c>
+      <c r="H39" s="1">
+        <v>23.015000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>99</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
+        <v>12.433999999999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>13.346</v>
+      </c>
+      <c r="D40" s="1">
         <v>14.446999999999999</v>
       </c>
-      <c r="C40">
+      <c r="E40" s="1">
         <v>15.808999999999999</v>
       </c>
-      <c r="D40">
+      <c r="F40" s="1">
         <v>17.547999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>19.861999999999998</v>
+      </c>
+      <c r="H40" s="1">
+        <v>23.134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>100</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
+        <v>12.446999999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>13.361000000000001</v>
+      </c>
+      <c r="D41" s="1">
         <v>14.465999999999999</v>
       </c>
-      <c r="C41">
+      <c r="E41" s="1">
         <v>15.834</v>
       </c>
-      <c r="D41">
+      <c r="F41" s="1">
         <v>17.585999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>19.925999999999998</v>
+      </c>
+      <c r="H41" s="1">
+        <v>23.254000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>101</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
+        <v>12.461</v>
+      </c>
+      <c r="C42" s="1">
+        <v>13.375999999999999</v>
+      </c>
+      <c r="D42" s="1">
         <v>14.484</v>
       </c>
-      <c r="C42">
+      <c r="E42" s="1">
         <v>15.86</v>
       </c>
-      <c r="D42">
+      <c r="F42" s="1">
         <v>17.623999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H42" s="1">
+        <v>23.376000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>102</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
+        <v>12.475</v>
+      </c>
+      <c r="C43" s="1">
+        <v>13.391999999999999</v>
+      </c>
+      <c r="D43" s="1">
         <v>14.503</v>
       </c>
-      <c r="C43">
+      <c r="E43" s="1">
         <v>15.885999999999999</v>
       </c>
-      <c r="D43">
+      <c r="F43" s="1">
         <v>17.663</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>20.056000000000001</v>
+      </c>
+      <c r="H43" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>103</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
+        <v>12.489000000000001</v>
+      </c>
+      <c r="C44" s="1">
+        <v>13.407999999999999</v>
+      </c>
+      <c r="D44" s="1">
         <v>14.523</v>
       </c>
-      <c r="C44">
+      <c r="E44" s="1">
         <v>15.912000000000001</v>
       </c>
-      <c r="D44">
+      <c r="F44" s="1">
         <v>17.702000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>20.123000000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>23.626999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>104</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
+        <v>12.503</v>
+      </c>
+      <c r="C45" s="1">
+        <v>13.423999999999999</v>
+      </c>
+      <c r="D45" s="1">
         <v>14.542</v>
       </c>
-      <c r="C45">
+      <c r="E45" s="1">
         <v>15.938000000000001</v>
       </c>
-      <c r="D45">
+      <c r="F45" s="1">
         <v>17.742000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="H45" s="1">
+        <v>23.754999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>105</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
+        <v>12.518000000000001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>13.44</v>
+      </c>
+      <c r="D46" s="1">
         <v>14.561999999999999</v>
       </c>
-      <c r="C46">
+      <c r="E46" s="1">
         <v>15.965</v>
       </c>
-      <c r="D46">
+      <c r="F46" s="1">
         <v>17.783000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>20.257999999999999</v>
+      </c>
+      <c r="H46" s="1">
+        <v>23.885000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>106</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
+        <v>12.532</v>
+      </c>
+      <c r="C47" s="1">
+        <v>13.456</v>
+      </c>
+      <c r="D47" s="1">
         <v>14.582000000000001</v>
       </c>
-      <c r="C47">
+      <c r="E47" s="1">
         <v>15.992000000000001</v>
       </c>
-      <c r="D47">
+      <c r="F47" s="1">
         <v>17.824000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>20.327000000000002</v>
+      </c>
+      <c r="H47" s="1">
+        <v>24.018000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>107</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
+        <v>12.547000000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>13.473000000000001</v>
+      </c>
+      <c r="D48" s="1">
         <v>14.603</v>
       </c>
-      <c r="C48">
+      <c r="E48" s="1">
         <v>16.02</v>
       </c>
-      <c r="D48">
+      <c r="F48" s="1">
         <v>17.866</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>20.396999999999998</v>
+      </c>
+      <c r="H48" s="1">
+        <v>24.151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>108</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
+        <v>12.561999999999999</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13.491</v>
+      </c>
+      <c r="D49" s="1">
         <v>14.624000000000001</v>
       </c>
-      <c r="C49">
+      <c r="E49" s="1">
         <v>16.048999999999999</v>
       </c>
-      <c r="D49">
+      <c r="F49" s="1">
         <v>17.908000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>20.468</v>
+      </c>
+      <c r="H49" s="1">
+        <v>24.288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>109</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
+        <v>12.577999999999999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>13.507999999999999</v>
+      </c>
+      <c r="D50" s="1">
         <v>14.646000000000001</v>
       </c>
-      <c r="C50">
+      <c r="E50" s="1">
         <v>16.077999999999999</v>
       </c>
-      <c r="D50">
+      <c r="F50" s="1">
         <v>17.952000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <v>20.54</v>
+      </c>
+      <c r="H50" s="1">
+        <v>24.425999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>110</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
+        <v>12.593999999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>13.526</v>
+      </c>
+      <c r="D51" s="1">
         <v>14.667999999999999</v>
       </c>
-      <c r="C51">
+      <c r="E51" s="1">
         <v>16.108000000000001</v>
       </c>
-      <c r="D51">
+      <c r="F51" s="1">
         <v>17.995999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G51" s="1">
+        <v>20.613</v>
+      </c>
+      <c r="H51" s="1">
+        <v>24.567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>111</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
+        <v>12.61</v>
+      </c>
+      <c r="C52" s="1">
+        <v>13.545</v>
+      </c>
+      <c r="D52" s="1">
         <v>14.691000000000001</v>
       </c>
-      <c r="C52">
+      <c r="E52" s="1">
         <v>16.138000000000002</v>
       </c>
-      <c r="D52">
+      <c r="F52" s="1">
         <v>18.04</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>20.687000000000001</v>
+      </c>
+      <c r="H52" s="1">
+        <v>24.709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>112</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
+        <v>12.625999999999999</v>
+      </c>
+      <c r="C53" s="1">
+        <v>13.564</v>
+      </c>
+      <c r="D53" s="1">
         <v>14.714</v>
       </c>
-      <c r="C53">
+      <c r="E53" s="1">
         <v>16.169</v>
       </c>
-      <c r="D53">
+      <c r="F53" s="1">
         <v>18.085999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <v>20.763000000000002</v>
+      </c>
+      <c r="H53" s="1">
+        <v>24.853999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>113</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
+        <v>12.643000000000001</v>
+      </c>
+      <c r="C54" s="1">
+        <v>13.583</v>
+      </c>
+      <c r="D54" s="1">
         <v>14.738</v>
       </c>
-      <c r="C54">
+      <c r="E54" s="1">
         <v>16.201000000000001</v>
       </c>
-      <c r="D54">
+      <c r="F54" s="1">
         <v>18.132000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G54" s="1">
+        <v>20.838999999999999</v>
+      </c>
+      <c r="H54" s="1">
+        <v>25.001000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>114</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
+        <v>12.661</v>
+      </c>
+      <c r="C55" s="1">
+        <v>13.603</v>
+      </c>
+      <c r="D55" s="1">
         <v>14.763</v>
       </c>
-      <c r="C55">
+      <c r="E55" s="1">
         <v>16.233000000000001</v>
       </c>
-      <c r="D55">
+      <c r="F55" s="1">
         <v>18.178999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <v>20.916</v>
+      </c>
+      <c r="H55" s="1">
+        <v>25.149000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>115</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
+        <v>12.679</v>
+      </c>
+      <c r="C56" s="1">
+        <v>13.624000000000001</v>
+      </c>
+      <c r="D56" s="1">
         <v>14.788</v>
       </c>
-      <c r="C56">
+      <c r="E56" s="1">
         <v>16.265999999999998</v>
       </c>
-      <c r="D56">
+      <c r="F56" s="1">
         <v>18.227</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G56" s="1">
+        <v>20.994</v>
+      </c>
+      <c r="H56" s="1">
+        <v>25.298999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>116</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
+        <v>12.696999999999999</v>
+      </c>
+      <c r="C57" s="1">
+        <v>13.645</v>
+      </c>
+      <c r="D57" s="1">
         <v>14.814</v>
       </c>
-      <c r="C57">
+      <c r="E57" s="1">
         <v>16.3</v>
       </c>
-      <c r="D57">
+      <c r="F57" s="1">
         <v>18.276</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G57" s="1">
+        <v>21.074000000000002</v>
+      </c>
+      <c r="H57" s="1">
+        <v>25.451000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>117</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
+        <v>12.715999999999999</v>
+      </c>
+      <c r="C58" s="1">
+        <v>13.667</v>
+      </c>
+      <c r="D58" s="1">
         <v>14.84</v>
       </c>
-      <c r="C58">
+      <c r="E58" s="1">
         <v>16.335000000000001</v>
       </c>
-      <c r="D58">
+      <c r="F58" s="1">
         <v>18.326000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>21.154</v>
+      </c>
+      <c r="H58" s="1">
+        <v>25.605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>118</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
+        <v>12.734999999999999</v>
+      </c>
+      <c r="C59" s="1">
+        <v>13.689</v>
+      </c>
+      <c r="D59" s="1">
         <v>14.867000000000001</v>
       </c>
-      <c r="C59">
+      <c r="E59" s="1">
         <v>16.37</v>
       </c>
-      <c r="D59">
+      <c r="F59" s="1">
         <v>18.376000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>21.234000000000002</v>
+      </c>
+      <c r="H59" s="1">
+        <v>25.757999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>119</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
+        <v>12.755000000000001</v>
+      </c>
+      <c r="C60" s="1">
+        <v>13.712</v>
+      </c>
+      <c r="D60" s="1">
         <v>14.895</v>
       </c>
-      <c r="C60">
+      <c r="E60" s="1">
         <v>16.405999999999999</v>
       </c>
-      <c r="D60">
+      <c r="F60" s="1">
         <v>18.428000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>21.317</v>
+      </c>
+      <c r="H60" s="1">
+        <v>25.914999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>120</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
+        <v>12.775</v>
+      </c>
+      <c r="C61" s="1">
+        <v>13.734999999999999</v>
+      </c>
+      <c r="D61" s="1">
         <v>14.923</v>
       </c>
-      <c r="C61">
+      <c r="E61" s="1">
         <v>16.443000000000001</v>
       </c>
-      <c r="D61">
+      <c r="F61" s="1">
         <v>18.48</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="H61" s="1">
+        <v>26.073</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>121</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
+        <v>12.795999999999999</v>
+      </c>
+      <c r="C62" s="1">
+        <v>13.759</v>
+      </c>
+      <c r="D62" s="1">
         <v>14.952</v>
       </c>
-      <c r="C62">
+      <c r="E62" s="1">
         <v>16.481000000000002</v>
       </c>
-      <c r="D62">
+      <c r="F62" s="1">
         <v>18.532</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <v>21.483000000000001</v>
+      </c>
+      <c r="H62" s="1">
+        <v>26.231000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>122</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
+        <v>12.817</v>
+      </c>
+      <c r="C63" s="1">
+        <v>13.784000000000001</v>
+      </c>
+      <c r="D63" s="1">
         <v>14.981999999999999</v>
       </c>
-      <c r="C63">
+      <c r="E63" s="1">
         <v>16.518999999999998</v>
       </c>
-      <c r="D63">
+      <c r="F63" s="1">
         <v>18.585999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <v>21.568000000000001</v>
+      </c>
+      <c r="H63" s="1">
+        <v>26.390999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>123</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
+        <v>12.837999999999999</v>
+      </c>
+      <c r="C64" s="1">
+        <v>13.808</v>
+      </c>
+      <c r="D64" s="1">
         <v>15.012</v>
       </c>
-      <c r="C64">
+      <c r="E64" s="1">
         <v>16.558</v>
       </c>
-      <c r="D64">
+      <c r="F64" s="1">
         <v>18.64</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>21.652999999999999</v>
+      </c>
+      <c r="H64" s="1">
+        <v>26.552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>124</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
+        <v>12.86</v>
+      </c>
+      <c r="C65" s="1">
+        <v>13.834</v>
+      </c>
+      <c r="D65" s="1">
         <v>15.042999999999999</v>
       </c>
-      <c r="C65">
+      <c r="E65" s="1">
         <v>16.597000000000001</v>
       </c>
-      <c r="D65">
+      <c r="F65" s="1">
         <v>18.696000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>21.739000000000001</v>
+      </c>
+      <c r="H65" s="1">
+        <v>26.713999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>125</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
+        <v>12.882</v>
+      </c>
+      <c r="C66" s="1">
+        <v>13.86</v>
+      </c>
+      <c r="D66" s="1">
         <v>15.074</v>
       </c>
-      <c r="C66">
+      <c r="E66" s="1">
         <v>16.638000000000002</v>
       </c>
-      <c r="D66">
+      <c r="F66" s="1">
         <v>18.751000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <v>21.826000000000001</v>
+      </c>
+      <c r="H66" s="1">
+        <v>26.875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>126</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
+        <v>12.904999999999999</v>
+      </c>
+      <c r="C67" s="1">
+        <v>13.885999999999999</v>
+      </c>
+      <c r="D67" s="1">
         <v>15.106</v>
       </c>
-      <c r="C67">
+      <c r="E67" s="1">
         <v>16.678999999999998</v>
       </c>
-      <c r="D67">
+      <c r="F67" s="1">
         <v>18.808</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>21.914000000000001</v>
+      </c>
+      <c r="H67" s="1">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>127</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
+        <v>12.928000000000001</v>
+      </c>
+      <c r="C68" s="1">
+        <v>13.913</v>
+      </c>
+      <c r="D68" s="1">
         <v>15.138999999999999</v>
       </c>
-      <c r="C68">
+      <c r="E68" s="1">
         <v>16.72</v>
       </c>
-      <c r="D68">
+      <c r="F68" s="1">
         <v>18.864999999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G68" s="1">
+        <v>22.001999999999999</v>
+      </c>
+      <c r="H68" s="1">
+        <v>27.204000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>128</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
+        <v>12.952</v>
+      </c>
+      <c r="C69" s="1">
+        <v>13.941000000000001</v>
+      </c>
+      <c r="D69" s="1">
         <v>15.172000000000001</v>
       </c>
-      <c r="C69">
+      <c r="E69" s="1">
         <v>16.763000000000002</v>
       </c>
-      <c r="D69">
+      <c r="F69" s="1">
         <v>18.922999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G69" s="1">
+        <v>22.09</v>
+      </c>
+      <c r="H69" s="1">
+        <v>27.367000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>129</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
+        <v>12.976000000000001</v>
+      </c>
+      <c r="C70" s="1">
+        <v>13.968999999999999</v>
+      </c>
+      <c r="D70" s="1">
         <v>15.206</v>
       </c>
-      <c r="C70">
+      <c r="E70" s="1">
         <v>16.806000000000001</v>
       </c>
-      <c r="D70">
+      <c r="F70" s="1">
         <v>18.981999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G70" s="1">
+        <v>22.18</v>
+      </c>
+      <c r="H70" s="1">
+        <v>27.533000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>130</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
+        <v>13.000999999999999</v>
+      </c>
+      <c r="C71" s="1">
+        <v>13.997999999999999</v>
+      </c>
+      <c r="D71" s="1">
         <v>15.241</v>
       </c>
-      <c r="C71">
+      <c r="E71" s="1">
         <v>16.850000000000001</v>
       </c>
-      <c r="D71">
+      <c r="F71" s="1">
         <v>19.042000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G71" s="1">
+        <v>22.271000000000001</v>
+      </c>
+      <c r="H71" s="1">
+        <v>27.698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>131</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
+        <v>13.026</v>
+      </c>
+      <c r="C72" s="1">
+        <v>14.026999999999999</v>
+      </c>
+      <c r="D72" s="1">
         <v>15.276</v>
       </c>
-      <c r="C72">
+      <c r="E72" s="1">
         <v>16.893999999999998</v>
       </c>
-      <c r="D72">
+      <c r="F72" s="1">
         <v>19.102</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <v>22.361999999999998</v>
+      </c>
+      <c r="H72" s="1">
+        <v>27.863</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>132</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
+        <v>13.051</v>
+      </c>
+      <c r="C73" s="1">
+        <v>14.055999999999999</v>
+      </c>
+      <c r="D73" s="1">
         <v>15.311999999999999</v>
       </c>
-      <c r="C73">
+      <c r="E73" s="1">
         <v>16.939</v>
       </c>
-      <c r="D73">
+      <c r="F73" s="1">
         <v>19.163</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G73" s="1">
+        <v>22.452000000000002</v>
+      </c>
+      <c r="H73" s="1">
+        <v>28.027000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>133</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
+        <v>13.077</v>
+      </c>
+      <c r="C74" s="1">
+        <v>14.087</v>
+      </c>
+      <c r="D74" s="1">
         <v>15.348000000000001</v>
       </c>
-      <c r="C74">
+      <c r="E74" s="1">
         <v>16.984999999999999</v>
       </c>
-      <c r="D74">
+      <c r="F74" s="1">
         <v>19.224</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G74" s="1">
+        <v>22.544</v>
+      </c>
+      <c r="H74" s="1">
+        <v>28.192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>134</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
+        <v>13.103</v>
+      </c>
+      <c r="C75" s="1">
+        <v>14.117000000000001</v>
+      </c>
+      <c r="D75" s="1">
         <v>15.385</v>
       </c>
-      <c r="C75">
+      <c r="E75" s="1">
         <v>17.030999999999999</v>
       </c>
-      <c r="D75">
+      <c r="F75" s="1">
         <v>19.286999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G75" s="1">
+        <v>22.637</v>
+      </c>
+      <c r="H75" s="1">
+        <v>28.356999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>135</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
+        <v>13.13</v>
+      </c>
+      <c r="C76" s="1">
+        <v>14.148</v>
+      </c>
+      <c r="D76" s="1">
         <v>15.422000000000001</v>
       </c>
-      <c r="C76">
+      <c r="E76" s="1">
         <v>17.077999999999999</v>
       </c>
-      <c r="D76">
+      <c r="F76" s="1">
         <v>19.349</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G76" s="1">
+        <v>22.728999999999999</v>
+      </c>
+      <c r="H76" s="1">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>136</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
+        <v>13.157</v>
+      </c>
+      <c r="C77" s="1">
+        <v>14.18</v>
+      </c>
+      <c r="D77" s="1">
         <v>15.461</v>
       </c>
-      <c r="C77">
+      <c r="E77" s="1">
         <v>17.126000000000001</v>
       </c>
-      <c r="D77">
+      <c r="F77" s="1">
         <v>19.413</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <v>22.821999999999999</v>
+      </c>
+      <c r="H77" s="1">
+        <v>28.684000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>137</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
+        <v>13.185</v>
+      </c>
+      <c r="C78" s="1">
+        <v>14.212</v>
+      </c>
+      <c r="D78" s="1">
         <v>15.499000000000001</v>
       </c>
-      <c r="C78">
+      <c r="E78" s="1">
         <v>17.175000000000001</v>
       </c>
-      <c r="D78">
+      <c r="F78" s="1">
         <v>19.477</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <v>22.914999999999999</v>
+      </c>
+      <c r="H78" s="1">
+        <v>28.846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>138</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
+        <v>13.212999999999999</v>
+      </c>
+      <c r="C79" s="1">
+        <v>14.244999999999999</v>
+      </c>
+      <c r="D79" s="1">
         <v>15.539</v>
       </c>
-      <c r="C79">
+      <c r="E79" s="1">
         <v>17.224</v>
       </c>
-      <c r="D79">
+      <c r="F79" s="1">
         <v>19.542000000000002</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G79" s="1">
+        <v>23.009</v>
+      </c>
+      <c r="H79" s="1">
+        <v>29.007999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>139</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
+        <v>13.241</v>
+      </c>
+      <c r="C80" s="1">
+        <v>14.278</v>
+      </c>
+      <c r="D80" s="1">
         <v>15.577999999999999</v>
       </c>
-      <c r="C80">
+      <c r="E80" s="1">
         <v>17.273</v>
       </c>
-      <c r="D80">
+      <c r="F80" s="1">
         <v>19.606999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G80" s="1">
+        <v>23.103999999999999</v>
+      </c>
+      <c r="H80" s="1">
+        <v>29.169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>140</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
+        <v>13.27</v>
+      </c>
+      <c r="C81" s="1">
+        <v>14.311999999999999</v>
+      </c>
+      <c r="D81" s="1">
         <v>15.619</v>
       </c>
-      <c r="C81">
+      <c r="E81" s="1">
         <v>17.324000000000002</v>
       </c>
-      <c r="D81">
+      <c r="F81" s="1">
         <v>19.673999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>23.199000000000002</v>
+      </c>
+      <c r="H81" s="1">
+        <v>29.329000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>141</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>14.347</v>
+      </c>
+      <c r="D82" s="1">
         <v>15.66</v>
       </c>
-      <c r="C82">
+      <c r="E82" s="1">
         <v>17.375</v>
       </c>
-      <c r="D82">
+      <c r="F82" s="1">
         <v>19.741</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <v>23.292999999999999</v>
+      </c>
+      <c r="H82" s="1">
+        <v>29.486999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>142</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
+        <v>13.33</v>
+      </c>
+      <c r="C83" s="1">
+        <v>14.382</v>
+      </c>
+      <c r="D83" s="1">
         <v>15.702</v>
       </c>
-      <c r="C83">
+      <c r="E83" s="1">
         <v>17.427</v>
       </c>
-      <c r="D83">
+      <c r="F83" s="1">
         <v>19.808</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <v>23.388999999999999</v>
+      </c>
+      <c r="H83" s="1">
+        <v>29.645</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>143</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
+        <v>13.36</v>
+      </c>
+      <c r="C84" s="1">
+        <v>14.417</v>
+      </c>
+      <c r="D84" s="1">
         <v>15.744999999999999</v>
       </c>
-      <c r="C84">
+      <c r="E84" s="1">
         <v>17.48</v>
       </c>
-      <c r="D84">
+      <c r="F84" s="1">
         <v>19.876999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>23.484999999999999</v>
+      </c>
+      <c r="H84" s="1">
+        <v>29.802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>144</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
+        <v>13.391</v>
+      </c>
+      <c r="C85" s="1">
+        <v>14.452999999999999</v>
+      </c>
+      <c r="D85" s="1">
         <v>15.788</v>
       </c>
-      <c r="C85">
+      <c r="E85" s="1">
         <v>17.533000000000001</v>
       </c>
-      <c r="D85">
+      <c r="F85" s="1">
         <v>19.946000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>23.581</v>
+      </c>
+      <c r="H85" s="1">
+        <v>29.957000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>145</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
+        <v>13.422000000000001</v>
+      </c>
+      <c r="C86" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="D86" s="1">
         <v>15.833</v>
       </c>
-      <c r="C86">
+      <c r="E86" s="1">
         <v>17.588000000000001</v>
       </c>
-      <c r="D86">
+      <c r="F86" s="1">
         <v>20.015000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <v>23.677</v>
+      </c>
+      <c r="H86" s="1">
+        <v>30.11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>146</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
+        <v>13.454000000000001</v>
+      </c>
+      <c r="C87" s="1">
+        <v>14.528</v>
+      </c>
+      <c r="D87" s="1">
         <v>15.877000000000001</v>
       </c>
-      <c r="C87">
+      <c r="E87" s="1">
         <v>17.643000000000001</v>
       </c>
-      <c r="D87">
+      <c r="F87" s="1">
         <v>20.085999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G87" s="1">
+        <v>23.774000000000001</v>
+      </c>
+      <c r="H87" s="1">
+        <v>30.262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>147</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
+        <v>13.487</v>
+      </c>
+      <c r="C88" s="1">
+        <v>14.566000000000001</v>
+      </c>
+      <c r="D88" s="1">
         <v>15.923</v>
       </c>
-      <c r="C88">
+      <c r="E88" s="1">
         <v>17.698</v>
       </c>
-      <c r="D88">
+      <c r="F88" s="1">
         <v>20.157</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <v>23.870999999999999</v>
+      </c>
+      <c r="H88" s="1">
+        <v>30.411999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>148</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
+        <v>13.52</v>
+      </c>
+      <c r="C89" s="1">
+        <v>14.605</v>
+      </c>
+      <c r="D89" s="1">
         <v>15.968999999999999</v>
       </c>
-      <c r="C89">
+      <c r="E89" s="1">
         <v>17.754999999999999</v>
       </c>
-      <c r="D89">
+      <c r="F89" s="1">
         <v>20.228999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G89" s="1">
+        <v>23.969000000000001</v>
+      </c>
+      <c r="H89" s="1">
+        <v>30.561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>149</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
+        <v>13.554</v>
+      </c>
+      <c r="C90" s="1">
+        <v>14.644</v>
+      </c>
+      <c r="D90" s="1">
         <v>16.015999999999998</v>
       </c>
-      <c r="C90">
+      <c r="E90" s="1">
         <v>17.812000000000001</v>
       </c>
-      <c r="D90">
+      <c r="F90" s="1">
         <v>20.302</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>24.067</v>
+      </c>
+      <c r="H90" s="1">
+        <v>30.707999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>150</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
+        <v>13.587999999999999</v>
+      </c>
+      <c r="C91" s="1">
+        <v>14.683999999999999</v>
+      </c>
+      <c r="D91" s="1">
         <v>16.062999999999999</v>
       </c>
-      <c r="C91">
+      <c r="E91" s="1">
         <v>17.87</v>
       </c>
-      <c r="D91">
+      <c r="F91" s="1">
         <v>20.375</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G91" s="1">
+        <v>24.164999999999999</v>
+      </c>
+      <c r="H91" s="1">
+        <v>30.853999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>151</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
+        <v>13.622</v>
+      </c>
+      <c r="C92" s="1">
+        <v>14.724</v>
+      </c>
+      <c r="D92" s="1">
         <v>16.111999999999998</v>
       </c>
-      <c r="C92">
+      <c r="E92" s="1">
         <v>17.928999999999998</v>
       </c>
-      <c r="D92">
+      <c r="F92" s="1">
         <v>20.449000000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G92" s="1">
+        <v>24.263000000000002</v>
+      </c>
+      <c r="H92" s="1">
+        <v>30.998000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>152</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
+        <v>13.657999999999999</v>
+      </c>
+      <c r="C93" s="1">
+        <v>14.766</v>
+      </c>
+      <c r="D93" s="1">
         <v>16.161000000000001</v>
       </c>
-      <c r="C93">
+      <c r="E93" s="1">
         <v>17.989000000000001</v>
       </c>
-      <c r="D93">
+      <c r="F93" s="1">
         <v>20.524000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <v>24.361999999999998</v>
+      </c>
+      <c r="H93" s="1">
+        <v>31.138000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>153</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
+        <v>13.693</v>
+      </c>
+      <c r="C94" s="1">
+        <v>14.807</v>
+      </c>
+      <c r="D94" s="1">
         <v>16.21</v>
       </c>
-      <c r="C94">
+      <c r="E94" s="1">
         <v>18.048999999999999</v>
       </c>
-      <c r="D94">
+      <c r="F94" s="1">
         <v>20.599</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G94" s="1">
+        <v>24.46</v>
+      </c>
+      <c r="H94" s="1">
+        <v>31.277999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>154</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
+        <v>13.728999999999999</v>
+      </c>
+      <c r="C95" s="1">
+        <v>14.849</v>
+      </c>
+      <c r="D95" s="1">
         <v>16.260000000000002</v>
       </c>
-      <c r="C95">
+      <c r="E95" s="1">
         <v>18.11</v>
       </c>
-      <c r="D95">
+      <c r="F95" s="1">
         <v>20.675000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G95" s="1">
+        <v>24.559000000000001</v>
+      </c>
+      <c r="H95" s="1">
+        <v>31.417000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>155</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
+        <v>13.766</v>
+      </c>
+      <c r="C96" s="1">
+        <v>14.891999999999999</v>
+      </c>
+      <c r="D96" s="1">
         <v>16.311</v>
       </c>
-      <c r="C96">
+      <c r="E96" s="1">
         <v>18.170999999999999</v>
       </c>
-      <c r="D96">
+      <c r="F96" s="1">
         <v>20.751000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G96" s="1">
+        <v>24.658000000000001</v>
+      </c>
+      <c r="H96" s="1">
+        <v>31.550999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>156</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
+        <v>13.802</v>
+      </c>
+      <c r="C97" s="1">
+        <v>14.935</v>
+      </c>
+      <c r="D97" s="1">
         <v>16.361999999999998</v>
       </c>
-      <c r="C97">
+      <c r="E97" s="1">
         <v>18.233000000000001</v>
       </c>
-      <c r="D97">
+      <c r="F97" s="1">
         <v>20.829000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G97" s="1">
+        <v>24.757000000000001</v>
+      </c>
+      <c r="H97" s="1">
+        <v>31.686</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>157</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
+        <v>13.839</v>
+      </c>
+      <c r="C98" s="1">
+        <v>14.978999999999999</v>
+      </c>
+      <c r="D98" s="1">
         <v>16.414000000000001</v>
       </c>
-      <c r="C98">
+      <c r="E98" s="1">
         <v>18.295999999999999</v>
       </c>
-      <c r="D98">
+      <c r="F98" s="1">
         <v>20.905999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G98" s="1">
+        <v>24.856000000000002</v>
+      </c>
+      <c r="H98" s="1">
+        <v>31.815999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>158</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
+        <v>13.877000000000001</v>
+      </c>
+      <c r="C99" s="1">
+        <v>15.023</v>
+      </c>
+      <c r="D99" s="1">
         <v>16.466000000000001</v>
       </c>
-      <c r="C99">
+      <c r="E99" s="1">
         <v>18.359000000000002</v>
       </c>
-      <c r="D99">
+      <c r="F99" s="1">
         <v>20.984000000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <v>24.954000000000001</v>
+      </c>
+      <c r="H99" s="1">
+        <v>31.945</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>159</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
+        <v>13.914999999999999</v>
+      </c>
+      <c r="C100" s="1">
+        <v>15.067</v>
+      </c>
+      <c r="D100" s="1">
         <v>16.518999999999998</v>
       </c>
-      <c r="C100">
+      <c r="E100" s="1">
         <v>18.422000000000001</v>
       </c>
-      <c r="D100">
+      <c r="F100" s="1">
         <v>21.062000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G100" s="1">
+        <v>25.053000000000001</v>
+      </c>
+      <c r="H100" s="1">
+        <v>32.073</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>160</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
+        <v>13.952999999999999</v>
+      </c>
+      <c r="C101" s="1">
+        <v>15.112</v>
+      </c>
+      <c r="D101" s="1">
         <v>16.571999999999999</v>
       </c>
-      <c r="C101">
+      <c r="E101" s="1">
         <v>18.486000000000001</v>
       </c>
-      <c r="D101">
+      <c r="F101" s="1">
         <v>21.14</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G101" s="1">
+        <v>25.152000000000001</v>
+      </c>
+      <c r="H101" s="1">
+        <v>32.197000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>161</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
+        <v>13.991</v>
+      </c>
+      <c r="C102" s="1">
+        <v>15.157</v>
+      </c>
+      <c r="D102" s="1">
         <v>16.625</v>
       </c>
-      <c r="C102">
+      <c r="E102" s="1">
         <v>18.55</v>
       </c>
-      <c r="D102">
+      <c r="F102" s="1">
         <v>21.219000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G102" s="1">
+        <v>25.248999999999999</v>
+      </c>
+      <c r="H102" s="1">
+        <v>32.317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>162</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
+        <v>14.029</v>
+      </c>
+      <c r="C103" s="1">
+        <v>15.202</v>
+      </c>
+      <c r="D103" s="1">
         <v>16.678999999999998</v>
       </c>
-      <c r="C103">
+      <c r="E103" s="1">
         <v>18.614999999999998</v>
       </c>
-      <c r="D103">
+      <c r="F103" s="1">
         <v>21.297999999999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G103" s="1">
+        <v>25.347000000000001</v>
+      </c>
+      <c r="H103" s="1">
+        <v>32.436</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>163</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
+        <v>14.068</v>
+      </c>
+      <c r="C104" s="1">
+        <v>15.247</v>
+      </c>
+      <c r="D104" s="1">
         <v>16.733000000000001</v>
       </c>
-      <c r="C104">
+      <c r="E104" s="1">
         <v>18.68</v>
       </c>
-      <c r="D104">
+      <c r="F104" s="1">
         <v>21.376000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G104" s="1">
+        <v>25.443999999999999</v>
+      </c>
+      <c r="H104" s="1">
+        <v>32.551000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>164</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
+        <v>14.106999999999999</v>
+      </c>
+      <c r="C105" s="1">
+        <v>15.292999999999999</v>
+      </c>
+      <c r="D105" s="1">
         <v>16.786999999999999</v>
       </c>
-      <c r="C105">
+      <c r="E105" s="1">
         <v>18.744</v>
       </c>
-      <c r="D105">
+      <c r="F105" s="1">
         <v>21.454999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G105" s="1">
+        <v>25.54</v>
+      </c>
+      <c r="H105" s="1">
+        <v>32.662999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>165</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
+        <v>14.145</v>
+      </c>
+      <c r="C106" s="1">
+        <v>15.337999999999999</v>
+      </c>
+      <c r="D106" s="1">
         <v>16.841000000000001</v>
       </c>
-      <c r="C106">
+      <c r="E106" s="1">
         <v>18.809999999999999</v>
       </c>
-      <c r="D106">
+      <c r="F106" s="1">
         <v>21.533999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G106" s="1">
+        <v>25.635000000000002</v>
+      </c>
+      <c r="H106" s="1">
+        <v>32.771999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>166</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="C107" s="1">
+        <v>15.384</v>
+      </c>
+      <c r="D107" s="1">
         <v>16.895</v>
       </c>
-      <c r="C107">
+      <c r="E107" s="1">
         <v>18.875</v>
       </c>
-      <c r="D107">
+      <c r="F107" s="1">
         <v>21.613</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G107" s="1">
+        <v>25.731000000000002</v>
+      </c>
+      <c r="H107" s="1">
+        <v>32.880000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>167</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
+        <v>14.222</v>
+      </c>
+      <c r="C108" s="1">
+        <v>15.429</v>
+      </c>
+      <c r="D108" s="1">
         <v>16.95</v>
       </c>
-      <c r="C108">
+      <c r="E108" s="1">
         <v>18.940000000000001</v>
       </c>
-      <c r="D108">
+      <c r="F108" s="1">
         <v>21.690999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G108" s="1">
+        <v>25.824999999999999</v>
+      </c>
+      <c r="H108" s="1">
+        <v>32.984999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>168</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
+        <v>14.260999999999999</v>
+      </c>
+      <c r="C109" s="1">
+        <v>15.475</v>
+      </c>
+      <c r="D109" s="1">
         <v>17.004000000000001</v>
       </c>
-      <c r="C109">
+      <c r="E109" s="1">
         <v>19.004999999999999</v>
       </c>
-      <c r="D109">
+      <c r="F109" s="1">
         <v>21.77</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G109" s="1">
+        <v>25.917999999999999</v>
+      </c>
+      <c r="H109" s="1">
+        <v>33.084000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>169</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
+        <v>14.298999999999999</v>
+      </c>
+      <c r="C110" s="1">
+        <v>15.521000000000001</v>
+      </c>
+      <c r="D110" s="1">
         <v>17.058</v>
       </c>
-      <c r="C110">
+      <c r="E110" s="1">
         <v>19.07</v>
       </c>
-      <c r="D110">
+      <c r="F110" s="1">
         <v>21.847999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G110" s="1">
+        <v>26.010999999999999</v>
+      </c>
+      <c r="H110" s="1">
+        <v>33.182000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>170</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
+        <v>14.337</v>
+      </c>
+      <c r="C111" s="1">
+        <v>15.566000000000001</v>
+      </c>
+      <c r="D111" s="1">
         <v>17.113</v>
       </c>
-      <c r="C111">
+      <c r="E111" s="1">
         <v>19.135000000000002</v>
       </c>
-      <c r="D111">
+      <c r="F111" s="1">
         <v>21.925999999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G111" s="1">
+        <v>26.103000000000002</v>
+      </c>
+      <c r="H111" s="1">
+        <v>33.279000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>171</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
+        <v>14.375</v>
+      </c>
+      <c r="C112" s="1">
+        <v>15.611000000000001</v>
+      </c>
+      <c r="D112" s="1">
         <v>17.167000000000002</v>
       </c>
-      <c r="C112">
+      <c r="E112" s="1">
         <v>19.2</v>
       </c>
-      <c r="D112">
+      <c r="F112" s="1">
         <v>22.004000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G112" s="1">
+        <v>26.193999999999999</v>
+      </c>
+      <c r="H112" s="1">
+        <v>33.371000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>172</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
+        <v>14.414</v>
+      </c>
+      <c r="C113" s="1">
+        <v>15.657</v>
+      </c>
+      <c r="D113" s="1">
         <v>17.221</v>
       </c>
-      <c r="C113">
+      <c r="E113" s="1">
         <v>19.265000000000001</v>
       </c>
-      <c r="D113">
+      <c r="F113" s="1">
         <v>22.081</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G113" s="1">
+        <v>26.283999999999999</v>
+      </c>
+      <c r="H113" s="1">
+        <v>33.459000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>173</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
+        <v>14.451000000000001</v>
+      </c>
+      <c r="C114" s="1">
+        <v>15.702</v>
+      </c>
+      <c r="D114" s="1">
         <v>17.274999999999999</v>
       </c>
-      <c r="C114">
+      <c r="E114" s="1">
         <v>19.329000000000001</v>
       </c>
-      <c r="D114">
+      <c r="F114" s="1">
         <v>22.158000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G114" s="1">
+        <v>26.373000000000001</v>
+      </c>
+      <c r="H114" s="1">
+        <v>33.545999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>174</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
+        <v>14.489000000000001</v>
+      </c>
+      <c r="C115" s="1">
+        <v>15.747</v>
+      </c>
+      <c r="D115" s="1">
         <v>17.329000000000001</v>
       </c>
-      <c r="C115">
+      <c r="E115" s="1">
         <v>19.393999999999998</v>
       </c>
-      <c r="D115">
+      <c r="F115" s="1">
         <v>22.234999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G115" s="1">
+        <v>26.462</v>
+      </c>
+      <c r="H115" s="1">
+        <v>33.631</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>175</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
+        <v>14.526</v>
+      </c>
+      <c r="C116" s="1">
+        <v>15.791</v>
+      </c>
+      <c r="D116" s="1">
         <v>17.382000000000001</v>
       </c>
-      <c r="C116">
+      <c r="E116" s="1">
         <v>19.457999999999998</v>
       </c>
-      <c r="D116">
+      <c r="F116" s="1">
         <v>22.311</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G116" s="1">
+        <v>26.548999999999999</v>
+      </c>
+      <c r="H116" s="1">
+        <v>33.712000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>176</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
+        <v>14.563000000000001</v>
+      </c>
+      <c r="C117" s="1">
+        <v>15.836</v>
+      </c>
+      <c r="D117" s="1">
         <v>17.434999999999999</v>
       </c>
-      <c r="C117">
+      <c r="E117" s="1">
         <v>19.521999999999998</v>
       </c>
-      <c r="D117">
+      <c r="F117" s="1">
         <v>22.387</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G117" s="1">
+        <v>26.635000000000002</v>
+      </c>
+      <c r="H117" s="1">
+        <v>33.790999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>177</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="C118" s="1">
+        <v>15.88</v>
+      </c>
+      <c r="D118" s="1">
         <v>17.489000000000001</v>
       </c>
-      <c r="C118">
+      <c r="E118" s="1">
         <v>19.585000000000001</v>
       </c>
-      <c r="D118">
+      <c r="F118" s="1">
         <v>22.462</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G118" s="1">
+        <v>26.72</v>
+      </c>
+      <c r="H118" s="1">
+        <v>33.866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>178</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
+        <v>14.635999999999999</v>
+      </c>
+      <c r="C119" s="1">
+        <v>15.923999999999999</v>
+      </c>
+      <c r="D119" s="1">
         <v>17.541</v>
       </c>
-      <c r="C119">
+      <c r="E119" s="1">
         <v>19.649000000000001</v>
       </c>
-      <c r="D119">
+      <c r="F119" s="1">
         <v>22.536999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G119" s="1">
+        <v>26.803999999999998</v>
+      </c>
+      <c r="H119" s="1">
+        <v>33.941000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>179</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
+        <v>14.672000000000001</v>
+      </c>
+      <c r="C120" s="1">
+        <v>15.968</v>
+      </c>
+      <c r="D120" s="1">
         <v>17.594000000000001</v>
       </c>
-      <c r="C120">
+      <c r="E120" s="1">
         <v>19.712</v>
       </c>
-      <c r="D120">
+      <c r="F120" s="1">
         <v>22.611000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G120" s="1">
+        <v>26.887</v>
+      </c>
+      <c r="H120" s="1">
+        <v>34.012</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>180</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
+        <v>14.708</v>
+      </c>
+      <c r="C121" s="1">
+        <v>16.010999999999999</v>
+      </c>
+      <c r="D121" s="1">
         <v>17.646999999999998</v>
       </c>
-      <c r="C121">
+      <c r="E121" s="1">
         <v>19.774000000000001</v>
       </c>
-      <c r="D121">
+      <c r="F121" s="1">
         <v>22.684999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G121" s="1">
+        <v>26.969000000000001</v>
+      </c>
+      <c r="H121" s="1">
+        <v>34.081000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>181</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
+        <v>14.744</v>
+      </c>
+      <c r="C122" s="1">
+        <v>16.053999999999998</v>
+      </c>
+      <c r="D122" s="1">
         <v>17.699000000000002</v>
       </c>
-      <c r="C122">
+      <c r="E122" s="1">
         <v>19.837</v>
       </c>
-      <c r="D122">
+      <c r="F122" s="1">
         <v>22.757999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G122" s="1">
+        <v>27.050999999999998</v>
+      </c>
+      <c r="H122" s="1">
+        <v>34.149000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>182</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
+        <v>14.779</v>
+      </c>
+      <c r="C123" s="1">
+        <v>16.097000000000001</v>
+      </c>
+      <c r="D123" s="1">
         <v>17.75</v>
       </c>
-      <c r="C123">
+      <c r="E123" s="1">
         <v>19.899000000000001</v>
       </c>
-      <c r="D123">
+      <c r="F123" s="1">
         <v>22.831</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G123" s="1">
+        <v>27.13</v>
+      </c>
+      <c r="H123" s="1">
+        <v>34.213000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>183</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
+        <v>14.814</v>
+      </c>
+      <c r="C124" s="1">
+        <v>16.14</v>
+      </c>
+      <c r="D124" s="1">
         <v>17.802</v>
       </c>
-      <c r="C124">
+      <c r="E124" s="1">
         <v>19.96</v>
       </c>
-      <c r="D124">
+      <c r="F124" s="1">
         <v>22.902999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G124" s="1">
+        <v>27.21</v>
+      </c>
+      <c r="H124" s="1">
+        <v>34.274999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>184</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
+        <v>14.848000000000001</v>
+      </c>
+      <c r="C125" s="1">
+        <v>16.181999999999999</v>
+      </c>
+      <c r="D125" s="1">
         <v>17.853000000000002</v>
       </c>
-      <c r="C125">
+      <c r="E125" s="1">
         <v>20.021999999999998</v>
       </c>
-      <c r="D125">
+      <c r="F125" s="1">
         <v>22.975000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G125" s="1">
+        <v>27.288</v>
+      </c>
+      <c r="H125" s="1">
+        <v>34.337000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>185</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
+        <v>14.882</v>
+      </c>
+      <c r="C126" s="1">
+        <v>16.224</v>
+      </c>
+      <c r="D126" s="1">
         <v>17.904</v>
       </c>
-      <c r="C126">
+      <c r="E126" s="1">
         <v>20.082000000000001</v>
       </c>
-      <c r="D126">
+      <c r="F126" s="1">
         <v>23.045999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G126" s="1">
+        <v>27.364999999999998</v>
+      </c>
+      <c r="H126" s="1">
+        <v>34.395000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>186</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
+        <v>14.916</v>
+      </c>
+      <c r="C127" s="1">
+        <v>16.265000000000001</v>
+      </c>
+      <c r="D127" s="1">
         <v>17.954000000000001</v>
       </c>
-      <c r="C127">
+      <c r="E127" s="1">
         <v>20.143000000000001</v>
       </c>
-      <c r="D127">
+      <c r="F127" s="1">
         <v>23.116</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G127" s="1">
+        <v>27.440999999999999</v>
+      </c>
+      <c r="H127" s="1">
+        <v>34.451999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>187</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
+        <v>14.95</v>
+      </c>
+      <c r="C128" s="1">
+        <v>16.306000000000001</v>
+      </c>
+      <c r="D128" s="1">
         <v>18.004000000000001</v>
       </c>
-      <c r="C128">
+      <c r="E128" s="1">
         <v>20.202999999999999</v>
       </c>
-      <c r="D128">
+      <c r="F128" s="1">
         <v>23.186</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G128" s="1">
+        <v>27.515000000000001</v>
+      </c>
+      <c r="H128" s="1">
+        <v>34.505000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>188</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
+        <v>14.981999999999999</v>
+      </c>
+      <c r="C129" s="1">
+        <v>16.347000000000001</v>
+      </c>
+      <c r="D129" s="1">
         <v>18.053000000000001</v>
       </c>
-      <c r="C129">
+      <c r="E129" s="1">
         <v>20.262</v>
       </c>
-      <c r="D129">
+      <c r="F129" s="1">
         <v>23.254999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G129" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="H129" s="1">
+        <v>34.558999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>189</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
+        <v>15.015000000000001</v>
+      </c>
+      <c r="C130" s="1">
+        <v>16.387</v>
+      </c>
+      <c r="D130" s="1">
         <v>18.103000000000002</v>
       </c>
-      <c r="C130">
+      <c r="E130" s="1">
         <v>20.321000000000002</v>
       </c>
-      <c r="D130">
+      <c r="F130" s="1">
         <v>23.324000000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G130" s="1">
+        <v>27.661999999999999</v>
+      </c>
+      <c r="H130" s="1">
+        <v>34.61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>190</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
+        <v>15.047000000000001</v>
+      </c>
+      <c r="C131" s="1">
+        <v>16.427</v>
+      </c>
+      <c r="D131" s="1">
         <v>18.151</v>
       </c>
-      <c r="C131">
+      <c r="E131" s="1">
         <v>20.38</v>
       </c>
-      <c r="D131">
+      <c r="F131" s="1">
         <v>23.390999999999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G131" s="1">
+        <v>27.734000000000002</v>
+      </c>
+      <c r="H131" s="1">
+        <v>34.659999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>191</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
+        <v>15.077999999999999</v>
+      </c>
+      <c r="C132" s="1">
+        <v>16.466000000000001</v>
+      </c>
+      <c r="D132" s="1">
         <v>18.199000000000002</v>
       </c>
-      <c r="C132">
+      <c r="E132" s="1">
         <v>20.437999999999999</v>
       </c>
-      <c r="D132">
+      <c r="F132" s="1">
         <v>23.459</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G132" s="1">
+        <v>27.805</v>
+      </c>
+      <c r="H132" s="1">
+        <v>34.707999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>192</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
+        <v>15.109</v>
+      </c>
+      <c r="C133" s="1">
+        <v>16.504999999999999</v>
+      </c>
+      <c r="D133" s="1">
         <v>18.247</v>
       </c>
-      <c r="C133">
+      <c r="E133" s="1">
         <v>20.495000000000001</v>
       </c>
-      <c r="D133">
+      <c r="F133" s="1">
         <v>23.524999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G133" s="1">
+        <v>27.875</v>
+      </c>
+      <c r="H133" s="1">
+        <v>34.753999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>193</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
+        <v>15.14</v>
+      </c>
+      <c r="C134" s="1">
+        <v>16.542999999999999</v>
+      </c>
+      <c r="D134" s="1">
         <v>18.295000000000002</v>
       </c>
-      <c r="C134">
+      <c r="E134" s="1">
         <v>20.552</v>
       </c>
-      <c r="D134">
+      <c r="F134" s="1">
         <v>23.591000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G134" s="1">
+        <v>27.943000000000001</v>
+      </c>
+      <c r="H134" s="1">
+        <v>34.796999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>194</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
+        <v>15.17</v>
+      </c>
+      <c r="C135" s="1">
+        <v>16.581</v>
+      </c>
+      <c r="D135" s="1">
         <v>18.341999999999999</v>
       </c>
-      <c r="C135">
+      <c r="E135" s="1">
         <v>20.608000000000001</v>
       </c>
-      <c r="D135">
+      <c r="F135" s="1">
         <v>23.655999999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G135" s="1">
+        <v>28.010999999999999</v>
+      </c>
+      <c r="H135" s="1">
+        <v>34.840000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>195</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
+        <v>15.199</v>
+      </c>
+      <c r="C136" s="1">
+        <v>16.619</v>
+      </c>
+      <c r="D136" s="1">
         <v>18.388000000000002</v>
       </c>
-      <c r="C136">
+      <c r="E136" s="1">
         <v>20.664000000000001</v>
       </c>
-      <c r="D136">
+      <c r="F136" s="1">
         <v>23.721</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G136" s="1">
+        <v>28.077999999999999</v>
+      </c>
+      <c r="H136" s="1">
+        <v>34.881</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>196</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
+        <v>15.228</v>
+      </c>
+      <c r="C137" s="1">
+        <v>16.655999999999999</v>
+      </c>
+      <c r="D137" s="1">
         <v>18.434000000000001</v>
       </c>
-      <c r="C137">
+      <c r="E137" s="1">
         <v>20.72</v>
       </c>
-      <c r="D137">
+      <c r="F137" s="1">
         <v>23.785</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G137" s="1">
+        <v>28.143000000000001</v>
+      </c>
+      <c r="H137" s="1">
+        <v>34.921999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>197</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
+        <v>15.257</v>
+      </c>
+      <c r="C138" s="1">
+        <v>16.692</v>
+      </c>
+      <c r="D138" s="1">
         <v>18.478999999999999</v>
       </c>
-      <c r="C138">
+      <c r="E138" s="1">
         <v>20.774000000000001</v>
       </c>
-      <c r="D138">
+      <c r="F138" s="1">
         <v>23.847000000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G138" s="1">
+        <v>28.207000000000001</v>
+      </c>
+      <c r="H138" s="1">
+        <v>34.959000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>198</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
+        <v>15.285</v>
+      </c>
+      <c r="C139" s="1">
+        <v>16.728000000000002</v>
+      </c>
+      <c r="D139" s="1">
         <v>18.524000000000001</v>
       </c>
-      <c r="C139">
+      <c r="E139" s="1">
         <v>20.829000000000001</v>
       </c>
-      <c r="D139">
+      <c r="F139" s="1">
         <v>23.91</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G139" s="1">
+        <v>28.271000000000001</v>
+      </c>
+      <c r="H139" s="1">
+        <v>34.997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>199</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
+        <v>15.311999999999999</v>
+      </c>
+      <c r="C140" s="1">
+        <v>16.763000000000002</v>
+      </c>
+      <c r="D140" s="1">
         <v>18.568000000000001</v>
       </c>
-      <c r="C140">
+      <c r="E140" s="1">
         <v>20.882000000000001</v>
       </c>
-      <c r="D140">
+      <c r="F140" s="1">
         <v>23.972000000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G140" s="1">
+        <v>28.334</v>
+      </c>
+      <c r="H140" s="1">
+        <v>35.031999999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>200</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
+        <v>15.339</v>
+      </c>
+      <c r="C141" s="1">
+        <v>16.797999999999998</v>
+      </c>
+      <c r="D141" s="1">
         <v>18.611999999999998</v>
       </c>
-      <c r="C141">
+      <c r="E141" s="1">
         <v>20.936</v>
       </c>
-      <c r="D141">
+      <c r="F141" s="1">
         <v>24.032</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G141" s="1">
+        <v>28.395</v>
+      </c>
+      <c r="H141" s="1">
+        <v>35.066000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>201</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
+        <v>15.365</v>
+      </c>
+      <c r="C142" s="1">
+        <v>16.832999999999998</v>
+      </c>
+      <c r="D142" s="1">
         <v>18.655000000000001</v>
       </c>
-      <c r="C142">
+      <c r="E142" s="1">
         <v>20.988</v>
       </c>
-      <c r="D142">
+      <c r="F142" s="1">
         <v>24.093</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G142" s="1">
+        <v>28.456</v>
+      </c>
+      <c r="H142" s="1">
+        <v>35.097999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>202</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
+        <v>15.391</v>
+      </c>
+      <c r="C143" s="1">
+        <v>16.867000000000001</v>
+      </c>
+      <c r="D143" s="1">
         <v>18.698</v>
       </c>
-      <c r="C143">
+      <c r="E143" s="1">
         <v>21.04</v>
       </c>
-      <c r="D143">
+      <c r="F143" s="1">
         <v>24.152000000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G143" s="1">
+        <v>28.515000000000001</v>
+      </c>
+      <c r="H143" s="1">
+        <v>35.130000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>203</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
+        <v>15.417</v>
+      </c>
+      <c r="C144" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D144" s="1">
         <v>18.741</v>
       </c>
-      <c r="C144">
+      <c r="E144" s="1">
         <v>21.091000000000001</v>
       </c>
-      <c r="D144">
+      <c r="F144" s="1">
         <v>24.210999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G144" s="1">
+        <v>28.573</v>
+      </c>
+      <c r="H144" s="1">
+        <v>35.158000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>204</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
+        <v>15.441000000000001</v>
+      </c>
+      <c r="C145" s="1">
+        <v>16.933</v>
+      </c>
+      <c r="D145" s="1">
         <v>18.782</v>
       </c>
-      <c r="C145">
+      <c r="E145" s="1">
         <v>21.141999999999999</v>
       </c>
-      <c r="D145">
+      <c r="F145" s="1">
         <v>24.268999999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G145" s="1">
+        <v>28.63</v>
+      </c>
+      <c r="H145" s="1">
+        <v>35.186999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>205</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
+        <v>15.465</v>
+      </c>
+      <c r="C146" s="1">
+        <v>16.965</v>
+      </c>
+      <c r="D146" s="1">
         <v>18.823</v>
       </c>
-      <c r="C146">
+      <c r="E146" s="1">
         <v>21.192</v>
       </c>
-      <c r="D146">
+      <c r="F146" s="1">
         <v>24.327000000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G146" s="1">
+        <v>28.687000000000001</v>
+      </c>
+      <c r="H146" s="1">
+        <v>35.215000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>206</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
+        <v>15.489000000000001</v>
+      </c>
+      <c r="C147" s="1">
+        <v>16.997</v>
+      </c>
+      <c r="D147" s="1">
         <v>18.864000000000001</v>
       </c>
-      <c r="C147">
+      <c r="E147" s="1">
         <v>21.242000000000001</v>
       </c>
-      <c r="D147">
+      <c r="F147" s="1">
         <v>24.382999999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G147" s="1">
+        <v>28.742000000000001</v>
+      </c>
+      <c r="H147" s="1">
+        <v>35.24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>207</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
+        <v>15.512</v>
+      </c>
+      <c r="C148" s="1">
+        <v>17.027999999999999</v>
+      </c>
+      <c r="D148" s="1">
         <v>18.904</v>
       </c>
-      <c r="C148">
+      <c r="E148" s="1">
         <v>21.291</v>
       </c>
-      <c r="D148">
+      <c r="F148" s="1">
         <v>24.439</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G148" s="1">
+        <v>28.797000000000001</v>
+      </c>
+      <c r="H148" s="1">
+        <v>35.264000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>208</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
+        <v>15.534000000000001</v>
+      </c>
+      <c r="C149" s="1">
+        <v>17.059000000000001</v>
+      </c>
+      <c r="D149" s="1">
         <v>18.943999999999999</v>
       </c>
-      <c r="C149">
+      <c r="E149" s="1">
         <v>21.34</v>
       </c>
-      <c r="D149">
+      <c r="F149" s="1">
         <v>24.494</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G149" s="1">
+        <v>28.85</v>
+      </c>
+      <c r="H149" s="1">
+        <v>35.286999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>209</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
+        <v>15.555999999999999</v>
+      </c>
+      <c r="C150" s="1">
+        <v>17.088999999999999</v>
+      </c>
+      <c r="D150" s="1">
         <v>18.983000000000001</v>
       </c>
-      <c r="C150">
+      <c r="E150" s="1">
         <v>21.388000000000002</v>
       </c>
-      <c r="D150">
+      <c r="F150" s="1">
         <v>24.548999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G150" s="1">
+        <v>28.902999999999999</v>
+      </c>
+      <c r="H150" s="1">
+        <v>35.31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>210</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
+        <v>15.577</v>
+      </c>
+      <c r="C151" s="1">
+        <v>17.117999999999999</v>
+      </c>
+      <c r="D151" s="1">
         <v>19.021999999999998</v>
       </c>
-      <c r="C151">
+      <c r="E151" s="1">
         <v>21.434999999999999</v>
       </c>
-      <c r="D151">
+      <c r="F151" s="1">
         <v>24.603000000000002</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G151" s="1">
+        <v>28.954000000000001</v>
+      </c>
+      <c r="H151" s="1">
+        <v>35.331000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>211</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
+        <v>15.598000000000001</v>
+      </c>
+      <c r="C152" s="1">
+        <v>17.146999999999998</v>
+      </c>
+      <c r="D152" s="1">
         <v>19.059999999999999</v>
       </c>
-      <c r="C152">
+      <c r="E152" s="1">
         <v>21.481999999999999</v>
       </c>
-      <c r="D152">
+      <c r="F152" s="1">
         <v>24.655999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G152" s="1">
+        <v>29.004999999999999</v>
+      </c>
+      <c r="H152" s="1">
+        <v>35.350999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>212</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
+        <v>15.618</v>
+      </c>
+      <c r="C153" s="1">
+        <v>17.175999999999998</v>
+      </c>
+      <c r="D153" s="1">
         <v>19.097000000000001</v>
       </c>
-      <c r="C153">
+      <c r="E153" s="1">
         <v>21.527999999999999</v>
       </c>
-      <c r="D153">
+      <c r="F153" s="1">
         <v>24.707999999999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G153" s="1">
+        <v>29.053999999999998</v>
+      </c>
+      <c r="H153" s="1">
+        <v>35.369</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>213</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
+        <v>15.637</v>
+      </c>
+      <c r="C154" s="1">
+        <v>17.204000000000001</v>
+      </c>
+      <c r="D154" s="1">
         <v>19.134</v>
       </c>
-      <c r="C154">
+      <c r="E154" s="1">
         <v>21.574000000000002</v>
       </c>
-      <c r="D154">
+      <c r="F154" s="1">
         <v>24.76</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G154" s="1">
+        <v>29.103000000000002</v>
+      </c>
+      <c r="H154" s="1">
+        <v>35.387</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>214</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
+        <v>15.656000000000001</v>
+      </c>
+      <c r="C155" s="1">
+        <v>17.231000000000002</v>
+      </c>
+      <c r="D155" s="1">
         <v>19.170999999999999</v>
       </c>
-      <c r="C155">
+      <c r="E155" s="1">
         <v>21.619</v>
       </c>
-      <c r="D155">
+      <c r="F155" s="1">
         <v>24.811</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G155" s="1">
+        <v>29.15</v>
+      </c>
+      <c r="H155" s="1">
+        <v>35.402000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>215</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
+        <v>15.673999999999999</v>
+      </c>
+      <c r="C156" s="1">
+        <v>17.257999999999999</v>
+      </c>
+      <c r="D156" s="1">
         <v>19.207000000000001</v>
       </c>
-      <c r="C156">
+      <c r="E156" s="1">
         <v>21.664000000000001</v>
       </c>
-      <c r="D156">
+      <c r="F156" s="1">
         <v>24.861000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G156" s="1">
+        <v>29.196999999999999</v>
+      </c>
+      <c r="H156" s="1">
+        <v>35.417000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>216</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
+        <v>15.692</v>
+      </c>
+      <c r="C157" s="1">
+        <v>17.283999999999999</v>
+      </c>
+      <c r="D157" s="1">
         <v>19.242000000000001</v>
       </c>
-      <c r="C157">
+      <c r="E157" s="1">
         <v>21.707999999999998</v>
       </c>
-      <c r="D157">
+      <c r="F157" s="1">
         <v>24.911000000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G157" s="1">
+        <v>29.242999999999999</v>
+      </c>
+      <c r="H157" s="1">
+        <v>35.432000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>217</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
+        <v>15.709</v>
+      </c>
+      <c r="C158" s="1">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="D158" s="1">
         <v>19.277000000000001</v>
       </c>
-      <c r="C158">
+      <c r="E158" s="1">
         <v>21.751000000000001</v>
       </c>
-      <c r="D158">
+      <c r="F158" s="1">
         <v>24.959</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G158" s="1">
+        <v>29.286999999999999</v>
+      </c>
+      <c r="H158" s="1">
+        <v>35.442999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>218</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
+        <v>15.725</v>
+      </c>
+      <c r="C159" s="1">
+        <v>17.335000000000001</v>
+      </c>
+      <c r="D159" s="1">
         <v>19.311</v>
       </c>
-      <c r="C159">
+      <c r="E159" s="1">
         <v>21.794</v>
       </c>
-      <c r="D159">
+      <c r="F159" s="1">
         <v>25.007999999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G159" s="1">
+        <v>29.331</v>
+      </c>
+      <c r="H159" s="1">
+        <v>35.454999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>219</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
+        <v>15.741</v>
+      </c>
+      <c r="C160" s="1">
+        <v>17.36</v>
+      </c>
+      <c r="D160" s="1">
         <v>19.344000000000001</v>
       </c>
-      <c r="C160">
+      <c r="E160" s="1">
         <v>21.835999999999999</v>
       </c>
-      <c r="D160">
+      <c r="F160" s="1">
         <v>25.055</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G160" s="1">
+        <v>29.373000000000001</v>
+      </c>
+      <c r="H160" s="1">
+        <v>35.465000000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>220</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
+        <v>15.756</v>
+      </c>
+      <c r="C161" s="1">
+        <v>17.382999999999999</v>
+      </c>
+      <c r="D161" s="1">
         <v>19.376999999999999</v>
       </c>
-      <c r="C161">
+      <c r="E161" s="1">
         <v>21.876999999999999</v>
       </c>
-      <c r="D161">
+      <c r="F161" s="1">
         <v>25.102</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G161" s="1">
+        <v>29.414999999999999</v>
+      </c>
+      <c r="H161" s="1">
+        <v>35.475999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>221</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
+        <v>15.771000000000001</v>
+      </c>
+      <c r="C162" s="1">
+        <v>17.407</v>
+      </c>
+      <c r="D162" s="1">
         <v>19.41</v>
       </c>
-      <c r="C162">
+      <c r="E162" s="1">
         <v>21.917999999999999</v>
       </c>
-      <c r="D162">
+      <c r="F162" s="1">
         <v>25.146999999999998</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G162" s="1">
+        <v>29.454999999999998</v>
+      </c>
+      <c r="H162" s="1">
+        <v>35.482999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>222</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
+        <v>15.784000000000001</v>
+      </c>
+      <c r="C163" s="1">
+        <v>17.428999999999998</v>
+      </c>
+      <c r="D163" s="1">
         <v>19.442</v>
       </c>
-      <c r="C163">
+      <c r="E163" s="1">
         <v>21.957999999999998</v>
       </c>
-      <c r="D163">
+      <c r="F163" s="1">
         <v>25.193000000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G163" s="1">
+        <v>29.495999999999999</v>
+      </c>
+      <c r="H163" s="1">
+        <v>35.491999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>223</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
+        <v>15.798</v>
+      </c>
+      <c r="C164" s="1">
+        <v>17.452000000000002</v>
+      </c>
+      <c r="D164" s="1">
         <v>19.472999999999999</v>
       </c>
-      <c r="C164">
+      <c r="E164" s="1">
         <v>21.998000000000001</v>
       </c>
-      <c r="D164">
+      <c r="F164" s="1">
         <v>25.236999999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G164" s="1">
+        <v>29.533999999999999</v>
+      </c>
+      <c r="H164" s="1">
+        <v>35.497999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>224</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
+        <v>15.811</v>
+      </c>
+      <c r="C165" s="1">
+        <v>17.472999999999999</v>
+      </c>
+      <c r="D165" s="1">
         <v>19.504000000000001</v>
       </c>
-      <c r="C165">
+      <c r="E165" s="1">
         <v>22.036999999999999</v>
       </c>
-      <c r="D165">
+      <c r="F165" s="1">
         <v>25.280999999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G165" s="1">
+        <v>29.571999999999999</v>
+      </c>
+      <c r="H165" s="1">
+        <v>35.503</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>225</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
+        <v>15.823</v>
+      </c>
+      <c r="C166" s="1">
+        <v>17.495000000000001</v>
+      </c>
+      <c r="D166" s="1">
         <v>19.535</v>
       </c>
-      <c r="C166">
+      <c r="E166" s="1">
         <v>22.076000000000001</v>
       </c>
-      <c r="D166">
+      <c r="F166" s="1">
         <v>25.324000000000002</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G166" s="1">
+        <v>29.609000000000002</v>
+      </c>
+      <c r="H166" s="1">
+        <v>35.506999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>226</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
+        <v>15.834</v>
+      </c>
+      <c r="C167" s="1">
+        <v>17.515000000000001</v>
+      </c>
+      <c r="D167" s="1">
         <v>19.564</v>
       </c>
-      <c r="C167">
+      <c r="E167" s="1">
         <v>22.114000000000001</v>
       </c>
-      <c r="D167">
+      <c r="F167" s="1">
         <v>25.366</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G167" s="1">
+        <v>29.646000000000001</v>
+      </c>
+      <c r="H167" s="1">
+        <v>35.512</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>227</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
+        <v>15.845000000000001</v>
+      </c>
+      <c r="C168" s="1">
+        <v>17.535</v>
+      </c>
+      <c r="D168" s="1">
         <v>19.594000000000001</v>
       </c>
-      <c r="C168">
+      <c r="E168" s="1">
         <v>22.151</v>
       </c>
-      <c r="D168">
+      <c r="F168" s="1">
         <v>25.408000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G168" s="1">
+        <v>29.681000000000001</v>
+      </c>
+      <c r="H168" s="1">
+        <v>35.515000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>228</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
+        <v>15.855</v>
+      </c>
+      <c r="C169" s="1">
+        <v>17.553999999999998</v>
+      </c>
+      <c r="D169" s="1">
         <v>19.622</v>
       </c>
-      <c r="C169">
+      <c r="E169" s="1">
         <v>22.187999999999999</v>
       </c>
-      <c r="D169">
+      <c r="F169" s="1">
         <v>25.449000000000002</v>
+      </c>
+      <c r="G169" s="1">
+        <v>29.716000000000001</v>
+      </c>
+      <c r="H169" s="1">
+        <v>35.515999999999998</v>
       </c>
     </row>
   </sheetData>
